--- a/CINEKPROGRAMMERING/Maskinär programmering/Project08-Muquri-Ali-EP1200/project8/Project8.xlsx
+++ b/CINEKPROGRAMMERING/Maskinär programmering/Project08-Muquri-Ali-EP1200/project8/Project8.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliMu\OneDrive\Skrivbord\CINEK Programmering\CINEK-programmering\CINEKPROGRAMMERING\Maskinär programmering\Project08-Muquri-Ali-EP1200\project8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_FCB25411595A9A5058344C5633D8026B2CAEB0C7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B4990AB8-D01E-43D8-8742-67B5B8D0722F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Points</t>
   </si>
@@ -57,12 +55,24 @@
   </si>
   <si>
     <t>Part 2 - If()</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Out of time</t>
+  </si>
+  <si>
+    <t>There is Comparison failure at line 75. Which I think is an error in the correctOutput file and not in my code. It states that the Statements decents to VarDec which is not the case accordingly to syntax. VarDec should preceed statements. This is the case for all other test files provided.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,18 +410,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +430,7 @@
     <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="142.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -449,6 +459,12 @@
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -457,6 +473,12 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -465,6 +487,15 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -473,6 +504,12 @@
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -480,6 +517,15 @@
       </c>
       <c r="B7">
         <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
